--- a/Календарный график.xlsx
+++ b/Календарный график.xlsx
@@ -8,14 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyPC\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF9A18A0-3E2C-40D4-A330-FE49DC5C33CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383D2BFE-7EC9-47C7-A022-7885616AF785}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="План" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -244,7 +251,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -266,6 +272,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,115 +598,158 @@
   <dimension ref="A1:AF32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG9" sqref="AG9"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="86.88671875" customWidth="1"/>
-    <col min="2" max="2" width="2.33203125" customWidth="1"/>
-    <col min="3" max="3" width="2.77734375" customWidth="1"/>
-    <col min="4" max="4" width="2.5546875" customWidth="1"/>
-    <col min="5" max="32" width="3.109375" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" customWidth="1"/>
+    <col min="5" max="6" width="7.21875" customWidth="1"/>
+    <col min="7" max="7" width="6.88671875" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="9" max="9" width="6.77734375" customWidth="1"/>
+    <col min="10" max="10" width="7" customWidth="1"/>
+    <col min="11" max="11" width="6.77734375" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" customWidth="1"/>
+    <col min="13" max="14" width="6.88671875" customWidth="1"/>
+    <col min="15" max="15" width="7" customWidth="1"/>
+    <col min="16" max="16" width="7.77734375" customWidth="1"/>
+    <col min="17" max="17" width="7" customWidth="1"/>
+    <col min="18" max="19" width="7.109375" customWidth="1"/>
+    <col min="20" max="20" width="8.109375" customWidth="1"/>
+    <col min="21" max="21" width="7.109375" customWidth="1"/>
+    <col min="22" max="22" width="7.88671875" customWidth="1"/>
+    <col min="23" max="23" width="7.44140625" customWidth="1"/>
+    <col min="24" max="24" width="7" customWidth="1"/>
+    <col min="25" max="26" width="7.44140625" customWidth="1"/>
+    <col min="27" max="32" width="3.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>16</v>
-      </c>
-      <c r="R1" s="2">
-        <v>17</v>
-      </c>
-      <c r="S1" s="2">
-        <v>18</v>
-      </c>
-      <c r="T1" s="2">
-        <v>19</v>
-      </c>
-      <c r="U1" s="2">
-        <v>20</v>
-      </c>
-      <c r="V1" s="2">
-        <v>21</v>
-      </c>
-      <c r="W1" s="2">
-        <v>22</v>
-      </c>
-      <c r="X1" s="2">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="14">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="20">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
+      <c r="B1" s="23">
+        <f>DATE(,5,27)</f>
+        <v>148</v>
+      </c>
+      <c r="C1" s="23">
+        <f>DATE(,5,28)</f>
+        <v>149</v>
+      </c>
+      <c r="D1" s="23">
+        <f>DATE(,5,29)</f>
+        <v>150</v>
+      </c>
+      <c r="E1" s="23">
+        <f>DATE(,5,30)</f>
+        <v>151</v>
+      </c>
+      <c r="F1" s="23">
+        <f>DATE(,5,31)</f>
+        <v>152</v>
+      </c>
+      <c r="G1" s="23">
+        <f>DATE(,6,1)</f>
+        <v>153</v>
+      </c>
+      <c r="H1" s="23">
+        <f>DATE(,6,2)</f>
+        <v>154</v>
+      </c>
+      <c r="I1" s="23">
+        <f>DATE(,6,3)</f>
+        <v>155</v>
+      </c>
+      <c r="J1" s="23">
+        <f>DATE(,6,4)</f>
+        <v>156</v>
+      </c>
+      <c r="K1" s="23">
+        <f>DATE(,6,5)</f>
+        <v>157</v>
+      </c>
+      <c r="L1" s="23">
+        <f>DATE(,6,6)</f>
+        <v>158</v>
+      </c>
+      <c r="M1" s="23">
+        <f>DATE(,6,7)</f>
+        <v>159</v>
+      </c>
+      <c r="N1" s="23">
+        <f>DATE(,6,8)</f>
+        <v>160</v>
+      </c>
+      <c r="O1" s="23">
+        <f>DATE(,6,9)</f>
+        <v>161</v>
+      </c>
+      <c r="P1" s="23">
+        <f>DATE(,6,10)</f>
+        <v>162</v>
+      </c>
+      <c r="Q1" s="23">
+        <f>DATE(,6,11)</f>
+        <v>163</v>
+      </c>
+      <c r="R1" s="23">
+        <f>DATE(,6,12)</f>
+        <v>164</v>
+      </c>
+      <c r="S1" s="23">
+        <f>DATE(,6,13)</f>
+        <v>165</v>
+      </c>
+      <c r="T1" s="23">
+        <f>DATE(,6,14)</f>
+        <v>166</v>
+      </c>
+      <c r="U1" s="23">
+        <f>DATE(,6,15)</f>
+        <v>167</v>
+      </c>
+      <c r="V1" s="23">
+        <f>DATE(,6,16)</f>
+        <v>168</v>
+      </c>
+      <c r="W1" s="23">
+        <f>DATE(,6,17)</f>
+        <v>169</v>
+      </c>
+      <c r="X1" s="23">
+        <f>DATE(,6,18)</f>
+        <v>170</v>
+      </c>
+      <c r="Y1" s="23">
+        <f>DATE(,6,19)</f>
+        <v>171</v>
+      </c>
+      <c r="Z1" s="23">
+        <f>DATE(,6,20)</f>
+        <v>172</v>
+      </c>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
     </row>
     <row r="2" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -714,24 +764,24 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
     </row>
     <row r="3" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="7"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="7"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -750,26 +800,26 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="18"/>
-      <c r="AB3" s="18"/>
-      <c r="AC3" s="18"/>
-      <c r="AD3" s="18"/>
-      <c r="AE3" s="18"/>
-      <c r="AF3" s="18"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="17"/>
+      <c r="AD3" s="17"/>
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="17"/>
     </row>
     <row r="4" spans="1:32" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -786,28 +836,28 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="18"/>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="18"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="17"/>
     </row>
     <row r="5" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="6"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -822,66 +872,66 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="18"/>
-      <c r="AD5" s="18"/>
-      <c r="AE5" s="18"/>
-      <c r="AF5" s="18"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="17"/>
+      <c r="AE5" s="17"/>
+      <c r="AF5" s="17"/>
     </row>
     <row r="6" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="18"/>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="18"/>
-      <c r="AF6" s="18"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="17"/>
     </row>
     <row r="7" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -894,17 +944,17 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="20"/>
-      <c r="AA7" s="18"/>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="18"/>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="18"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="17"/>
+      <c r="AF7" s="17"/>
     </row>
     <row r="8" spans="1:32" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1"/>
@@ -913,13 +963,13 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -930,17 +980,17 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="18"/>
-      <c r="AB8" s="18"/>
-      <c r="AC8" s="18"/>
-      <c r="AD8" s="18"/>
-      <c r="AE8" s="18"/>
-      <c r="AF8" s="18"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="17"/>
+      <c r="AB8" s="17"/>
+      <c r="AC8" s="17"/>
+      <c r="AD8" s="17"/>
+      <c r="AE8" s="17"/>
+      <c r="AF8" s="17"/>
     </row>
     <row r="9" spans="1:32" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1"/>
@@ -951,13 +1001,13 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="6"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -966,17 +1016,17 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="20"/>
-      <c r="AA9" s="18"/>
-      <c r="AB9" s="18"/>
-      <c r="AC9" s="18"/>
-      <c r="AD9" s="18"/>
-      <c r="AE9" s="18"/>
-      <c r="AF9" s="18"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="17"/>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="17"/>
+      <c r="AE9" s="17"/>
+      <c r="AF9" s="17"/>
     </row>
     <row r="10" spans="1:32" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1"/>
@@ -987,14 +1037,14 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="8"/>
+      <c r="J10" s="7"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="7"/>
+      <c r="L10" s="6"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-      <c r="Q10" s="7"/>
+      <c r="Q10" s="6"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -1002,17 +1052,17 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="18"/>
-      <c r="AB10" s="18"/>
-      <c r="AC10" s="18"/>
-      <c r="AD10" s="18"/>
-      <c r="AE10" s="18"/>
-      <c r="AF10" s="18"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="17"/>
+      <c r="AE10" s="17"/>
+      <c r="AF10" s="17"/>
     </row>
     <row r="11" spans="1:32" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1"/>
@@ -1024,31 +1074,31 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="8"/>
+      <c r="K11" s="7"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="7"/>
+      <c r="M11" s="6"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="7"/>
+      <c r="R11" s="6"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="18"/>
-      <c r="AB11" s="18"/>
-      <c r="AC11" s="18"/>
-      <c r="AD11" s="18"/>
-      <c r="AE11" s="18"/>
-      <c r="AF11" s="18"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="17"/>
     </row>
     <row r="12" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="1"/>
@@ -1061,30 +1111,30 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="9"/>
+      <c r="L12" s="8"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="18"/>
-      <c r="AE12" s="18"/>
-      <c r="AF12" s="18"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="17"/>
+      <c r="AB12" s="17"/>
+      <c r="AC12" s="17"/>
+      <c r="AD12" s="17"/>
+      <c r="AE12" s="17"/>
+      <c r="AF12" s="17"/>
     </row>
     <row r="13" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="1"/>
@@ -1098,29 +1148,29 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="20"/>
-      <c r="AA13" s="18"/>
-      <c r="AB13" s="18"/>
-      <c r="AC13" s="18"/>
-      <c r="AD13" s="18"/>
-      <c r="AE13" s="18"/>
-      <c r="AF13" s="18"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="17"/>
+      <c r="AE13" s="17"/>
+      <c r="AF13" s="17"/>
     </row>
     <row r="14" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="1"/>
@@ -1134,29 +1184,29 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="8"/>
+      <c r="M14" s="7"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="7"/>
+      <c r="P14" s="6"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
-      <c r="U14" s="7"/>
+      <c r="U14" s="6"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="18"/>
-      <c r="AB14" s="18"/>
-      <c r="AC14" s="18"/>
-      <c r="AD14" s="18"/>
-      <c r="AE14" s="18"/>
-      <c r="AF14" s="18"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="17"/>
+      <c r="AC14" s="17"/>
+      <c r="AD14" s="17"/>
+      <c r="AE14" s="17"/>
+      <c r="AF14" s="17"/>
     </row>
     <row r="15" spans="1:32" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="1"/>
@@ -1171,28 +1221,28 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
       <c r="X15" s="1"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="20"/>
-      <c r="AA15" s="18"/>
-      <c r="AB15" s="18"/>
-      <c r="AC15" s="18"/>
-      <c r="AD15" s="18"/>
-      <c r="AE15" s="18"/>
-      <c r="AF15" s="18"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="17"/>
+      <c r="AD15" s="17"/>
+      <c r="AE15" s="17"/>
+      <c r="AF15" s="17"/>
     </row>
     <row r="16" spans="1:32" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="1"/>
@@ -1207,28 +1257,28 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
       <c r="X16" s="1"/>
-      <c r="Y16" s="14"/>
-      <c r="Z16" s="20"/>
-      <c r="AA16" s="18"/>
-      <c r="AB16" s="18"/>
-      <c r="AC16" s="18"/>
-      <c r="AD16" s="18"/>
-      <c r="AE16" s="18"/>
-      <c r="AF16" s="18"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17"/>
     </row>
     <row r="17" spans="1:32" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="1"/>
@@ -1244,27 +1294,27 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="8"/>
+      <c r="O17" s="7"/>
       <c r="P17" s="1"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
       <c r="X17" s="1"/>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="18"/>
-      <c r="AB17" s="18"/>
-      <c r="AC17" s="18"/>
-      <c r="AD17" s="18"/>
-      <c r="AE17" s="18"/>
-      <c r="AF17" s="18"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="17"/>
     </row>
     <row r="18" spans="1:32" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="1"/>
@@ -1280,27 +1330,27 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="8"/>
+      <c r="O18" s="7"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
       <c r="X18" s="1"/>
-      <c r="Y18" s="14"/>
-      <c r="Z18" s="20"/>
-      <c r="AA18" s="18"/>
-      <c r="AB18" s="18"/>
-      <c r="AC18" s="18"/>
-      <c r="AD18" s="18"/>
-      <c r="AE18" s="18"/>
-      <c r="AF18" s="18"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="17"/>
+      <c r="AE18" s="17"/>
+      <c r="AF18" s="17"/>
     </row>
     <row r="19" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="1"/>
@@ -1317,26 +1367,26 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
       <c r="R19" s="1"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="14"/>
-      <c r="Z19" s="20"/>
-      <c r="AA19" s="18"/>
-      <c r="AB19" s="18"/>
-      <c r="AC19" s="18"/>
-      <c r="AD19" s="18"/>
-      <c r="AE19" s="18"/>
-      <c r="AF19" s="18"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="17"/>
+      <c r="AF19" s="17"/>
     </row>
     <row r="20" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="1"/>
@@ -1355,24 +1405,24 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="21"/>
-      <c r="AA20" s="19"/>
-      <c r="AB20" s="19"/>
-      <c r="AC20" s="18"/>
-      <c r="AD20" s="18"/>
-      <c r="AE20" s="18"/>
-      <c r="AF20" s="18"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="20"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="18"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="17"/>
+      <c r="AF20" s="17"/>
     </row>
     <row r="21" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="1"/>
@@ -1391,24 +1441,24 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
-      <c r="R21" s="8"/>
+      <c r="R21" s="7"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
-      <c r="U21" s="7"/>
+      <c r="U21" s="6"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="21"/>
-      <c r="AA21" s="19"/>
-      <c r="AB21" s="19"/>
-      <c r="AC21" s="18"/>
-      <c r="AD21" s="18"/>
-      <c r="AE21" s="18"/>
-      <c r="AF21" s="18"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="20"/>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="18"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="17"/>
     </row>
     <row r="22" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="1"/>
@@ -1428,23 +1478,23 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
       <c r="U22" s="1"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="20"/>
-      <c r="AA22" s="18"/>
-      <c r="AB22" s="18"/>
-      <c r="AC22" s="18"/>
-      <c r="AD22" s="18"/>
-      <c r="AE22" s="18"/>
-      <c r="AF22" s="18"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
+      <c r="AD22" s="17"/>
+      <c r="AE22" s="17"/>
+      <c r="AF22" s="17"/>
     </row>
     <row r="23" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="1"/>
@@ -1464,23 +1514,23 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
       <c r="U23" s="1"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="21"/>
-      <c r="AA23" s="18"/>
-      <c r="AB23" s="18"/>
-      <c r="AC23" s="18"/>
-      <c r="AD23" s="18"/>
-      <c r="AE23" s="18"/>
-      <c r="AF23" s="18"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="20"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="17"/>
+      <c r="AC23" s="17"/>
+      <c r="AD23" s="17"/>
+      <c r="AE23" s="17"/>
+      <c r="AF23" s="17"/>
     </row>
     <row r="24" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="1"/>
@@ -1501,22 +1551,22 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
-      <c r="T24" s="8"/>
+      <c r="T24" s="7"/>
       <c r="U24" s="1"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="14"/>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="18"/>
-      <c r="AB24" s="18"/>
-      <c r="AC24" s="18"/>
-      <c r="AD24" s="18"/>
-      <c r="AE24" s="18"/>
-      <c r="AF24" s="18"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="17"/>
+      <c r="AC24" s="17"/>
+      <c r="AD24" s="17"/>
+      <c r="AE24" s="17"/>
+      <c r="AF24" s="17"/>
     </row>
     <row r="25" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="1"/>
@@ -1537,22 +1587,22 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="14"/>
-      <c r="Z25" s="21"/>
-      <c r="AA25" s="19"/>
-      <c r="AB25" s="18"/>
-      <c r="AC25" s="18"/>
-      <c r="AD25" s="18"/>
-      <c r="AE25" s="18"/>
-      <c r="AF25" s="18"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="20"/>
+      <c r="AA25" s="18"/>
+      <c r="AB25" s="17"/>
+      <c r="AC25" s="17"/>
+      <c r="AD25" s="17"/>
+      <c r="AE25" s="17"/>
+      <c r="AF25" s="17"/>
     </row>
     <row r="26" spans="1:32" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="1"/>
@@ -1574,21 +1624,21 @@
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
-      <c r="Y26" s="14"/>
-      <c r="Z26" s="21"/>
-      <c r="AA26" s="19"/>
-      <c r="AB26" s="19"/>
-      <c r="AC26" s="18"/>
-      <c r="AD26" s="18"/>
-      <c r="AE26" s="18"/>
-      <c r="AF26" s="18"/>
+      <c r="Y26" s="13"/>
+      <c r="Z26" s="20"/>
+      <c r="AA26" s="18"/>
+      <c r="AB26" s="18"/>
+      <c r="AC26" s="17"/>
+      <c r="AD26" s="17"/>
+      <c r="AE26" s="17"/>
+      <c r="AF26" s="17"/>
     </row>
     <row r="27" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="1"/>
@@ -1611,20 +1661,20 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
-      <c r="V27" s="8"/>
+      <c r="V27" s="7"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
-      <c r="Y27" s="14"/>
-      <c r="Z27" s="21"/>
-      <c r="AA27" s="19"/>
-      <c r="AB27" s="19"/>
-      <c r="AC27" s="18"/>
-      <c r="AD27" s="18"/>
-      <c r="AE27" s="18"/>
-      <c r="AF27" s="18"/>
+      <c r="Y27" s="13"/>
+      <c r="Z27" s="20"/>
+      <c r="AA27" s="18"/>
+      <c r="AB27" s="18"/>
+      <c r="AC27" s="17"/>
+      <c r="AD27" s="17"/>
+      <c r="AE27" s="17"/>
+      <c r="AF27" s="17"/>
     </row>
     <row r="28" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B28" s="1"/>
@@ -1648,19 +1698,19 @@
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
-      <c r="W28" s="13"/>
+      <c r="W28" s="12"/>
       <c r="X28" s="1"/>
-      <c r="Y28" s="14"/>
-      <c r="Z28" s="21"/>
-      <c r="AA28" s="19"/>
-      <c r="AB28" s="19"/>
-      <c r="AC28" s="18"/>
-      <c r="AD28" s="18"/>
-      <c r="AE28" s="18"/>
-      <c r="AF28" s="18"/>
+      <c r="Y28" s="13"/>
+      <c r="Z28" s="20"/>
+      <c r="AA28" s="18"/>
+      <c r="AB28" s="18"/>
+      <c r="AC28" s="17"/>
+      <c r="AD28" s="17"/>
+      <c r="AE28" s="17"/>
+      <c r="AF28" s="17"/>
     </row>
     <row r="29" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B29" s="1"/>
@@ -1685,18 +1735,18 @@
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
-      <c r="X29" s="10"/>
-      <c r="Y29" s="16"/>
-      <c r="Z29" s="22"/>
-      <c r="AA29" s="18"/>
-      <c r="AB29" s="18"/>
-      <c r="AC29" s="19"/>
-      <c r="AD29" s="19"/>
-      <c r="AE29" s="19"/>
-      <c r="AF29" s="19"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="15"/>
+      <c r="Z29" s="21"/>
+      <c r="AA29" s="17"/>
+      <c r="AB29" s="17"/>
+      <c r="AC29" s="18"/>
+      <c r="AD29" s="18"/>
+      <c r="AE29" s="18"/>
+      <c r="AF29" s="18"/>
     </row>
     <row r="30" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B30" s="1"/>
@@ -1721,18 +1771,18 @@
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
-      <c r="X30" s="8"/>
-      <c r="Y30" s="14"/>
-      <c r="Z30" s="20"/>
-      <c r="AA30" s="18"/>
-      <c r="AB30" s="18"/>
-      <c r="AC30" s="19"/>
-      <c r="AD30" s="19"/>
-      <c r="AE30" s="19"/>
-      <c r="AF30" s="19"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="13"/>
+      <c r="Z30" s="19"/>
+      <c r="AA30" s="17"/>
+      <c r="AB30" s="17"/>
+      <c r="AC30" s="18"/>
+      <c r="AD30" s="18"/>
+      <c r="AE30" s="18"/>
+      <c r="AF30" s="18"/>
     </row>
     <row r="31" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B31" s="1"/>
@@ -1758,17 +1808,17 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
-      <c r="Y31" s="17"/>
-      <c r="Z31" s="20"/>
-      <c r="AA31" s="18"/>
-      <c r="AB31" s="18"/>
-      <c r="AC31" s="19"/>
-      <c r="AD31" s="19"/>
-      <c r="AE31" s="19"/>
-      <c r="AF31" s="19"/>
+      <c r="Y31" s="16"/>
+      <c r="Z31" s="19"/>
+      <c r="AA31" s="17"/>
+      <c r="AB31" s="17"/>
+      <c r="AC31" s="18"/>
+      <c r="AD31" s="18"/>
+      <c r="AE31" s="18"/>
+      <c r="AF31" s="18"/>
     </row>
     <row r="32" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B32" s="1"/>
@@ -1794,14 +1844,14 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
-      <c r="Y32" s="14"/>
-      <c r="Z32" s="23"/>
-      <c r="AA32" s="18"/>
-      <c r="AB32" s="18"/>
-      <c r="AC32" s="19"/>
-      <c r="AD32" s="19"/>
-      <c r="AE32" s="19"/>
-      <c r="AF32" s="19"/>
+      <c r="Y32" s="13"/>
+      <c r="Z32" s="22"/>
+      <c r="AA32" s="17"/>
+      <c r="AB32" s="17"/>
+      <c r="AC32" s="18"/>
+      <c r="AD32" s="18"/>
+      <c r="AE32" s="18"/>
+      <c r="AF32" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
